--- a/Documentation/My Project/Sprint_Backlog_Sprint2.xlsx
+++ b/Documentation/My Project/Sprint_Backlog_Sprint2.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\761251\Desktop\Training\Agile\git copy\smart-shop\Documentation\My Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CTS\smart-shop\Documentation\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9EA10-78A6-437C-B51B-110C89821B8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="P62oxkItpZEHnUWYkUpxR9MVfRhfkuyC7bUZ/n3JcmKeiPuPrldenW9a2YCi/iM7JFk90njEIVhfpuHnhh7ACQ==" workbookSaltValue="HeGC/tuLlhu7A0rF8NoUxQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="8055"/>
+    <workbookView xWindow="-7620" yWindow="3915" windowWidth="15375" windowHeight="8325" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -103,14 +104,12 @@
     <definedName name="Type">#REF!</definedName>
     <definedName name="werwe">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -567,7 +566,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
@@ -1222,16 +1221,16 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="23"/>
-    <cellStyle name="Normal 2 2" xfId="24"/>
-    <cellStyle name="Normal 2 2 2" xfId="27"/>
-    <cellStyle name="Normal 2 2 3" xfId="25"/>
-    <cellStyle name="Normal 2 3" xfId="28"/>
-    <cellStyle name="Normal 3" xfId="26"/>
+    <cellStyle name="Normal 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -1452,7 +1451,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3577,10 +3575,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:G9"/>
     </sheetView>
   </sheetViews>
@@ -3932,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4277,10 +4275,10 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Simple,Average,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4294,12 +4292,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:I1"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4824,7 +4822,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="61">
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>59</v>
@@ -5600,7 +5598,7 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5610,7 +5608,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -5626,12 +5624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6675,10 +6673,10 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Simple,Average,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6688,7 +6686,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -6701,7 +6699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6732,6 +6730,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7546354fa6eadbdb121c3e0b1817e8b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69fdccfeacc47ed93e777095cd80702b" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -6928,15 +6935,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6944,6 +6942,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FD810D-B2CF-41CE-A4AF-BFF65F1A4369}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6962,27 +6968,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
+    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/My Project/Sprint_Backlog_Sprint2.xlsx
+++ b/Documentation/My Project/Sprint_Backlog_Sprint2.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CTS\smart-shop\Documentation\My Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\761251\Desktop\Training\Agile\git copy\smart-shop\Documentation\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9EA10-78A6-437C-B51B-110C89821B8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="P62oxkItpZEHnUWYkUpxR9MVfRhfkuyC7bUZ/n3JcmKeiPuPrldenW9a2YCi/iM7JFk90njEIVhfpuHnhh7ACQ==" workbookSaltValue="HeGC/tuLlhu7A0rF8NoUxQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-7620" yWindow="3915" windowWidth="15375" windowHeight="8325" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7620" yWindow="3915" windowWidth="15375" windowHeight="8325" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -104,7 +103,7 @@
     <definedName name="Type">#REF!</definedName>
     <definedName name="werwe">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -566,7 +565,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
@@ -1221,16 +1220,16 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 2 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 2" xfId="23"/>
+    <cellStyle name="Normal 2 2" xfId="24"/>
+    <cellStyle name="Normal 2 2 2" xfId="27"/>
+    <cellStyle name="Normal 2 2 3" xfId="25"/>
+    <cellStyle name="Normal 2 3" xfId="28"/>
+    <cellStyle name="Normal 3" xfId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -1278,6 +1277,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1322,22 +1322,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,6 +1451,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1501,22 +1502,22 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3575,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
@@ -3930,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4275,10 +4276,10 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1">
       <formula1>"Simple,Average,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4292,12 +4293,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4384,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="63">
         <v>0</v>
@@ -4422,7 +4423,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="63">
         <v>0</v>
@@ -4460,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="63">
         <v>0</v>
@@ -4496,7 +4497,7 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="63">
         <v>0</v>
@@ -4534,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="63">
         <v>0</v>
@@ -4572,10 +4573,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="63">
         <v>0</v>
@@ -4610,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="63">
         <v>0</v>
@@ -4648,10 +4649,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="63">
         <v>0</v>
@@ -4689,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="63">
         <v>0</v>
@@ -4727,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="63">
         <v>0</v>
@@ -4765,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="63">
         <v>0</v>
@@ -4801,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="63">
         <v>0</v>
@@ -4837,13 +4838,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="63">
         <v>0</v>
@@ -4878,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="63">
         <v>0</v>
@@ -4916,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="63">
         <v>0</v>
@@ -4954,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="63">
         <v>0</v>
@@ -4992,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="63">
         <v>0</v>
@@ -5030,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="63">
         <v>0</v>
@@ -5066,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="63">
         <v>0</v>
@@ -5104,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="63">
         <v>0</v>
@@ -5145,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="63">
         <v>0</v>
@@ -5183,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="63">
         <v>0</v>
@@ -5224,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="63" t="s">
         <v>40</v>
@@ -5262,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="63" t="s">
         <v>40</v>
@@ -5300,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="63" t="s">
         <v>40</v>
@@ -5338,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="63" t="s">
         <v>40</v>
@@ -5379,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="63" t="s">
         <v>40</v>
@@ -5417,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" s="63" t="s">
         <v>40</v>
@@ -5557,27 +5558,27 @@
       </c>
       <c r="F40" s="18">
         <f t="shared" ref="F40:K40" si="0">SUM(F3:F38)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -5598,7 +5599,7 @@
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5608,7 +5609,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -5624,12 +5625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5713,12 +5714,24 @@
       <c r="E3" s="63">
         <v>1</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
+      <c r="F3" s="63">
+        <v>1</v>
+      </c>
+      <c r="G3" s="61">
+        <v>0</v>
+      </c>
+      <c r="H3" s="63">
+        <v>0</v>
+      </c>
+      <c r="I3" s="63">
+        <v>0</v>
+      </c>
+      <c r="J3" s="63">
+        <v>0</v>
+      </c>
+      <c r="K3" s="63">
+        <v>0</v>
+      </c>
       <c r="L3" s="63" t="s">
         <v>40</v>
       </c>
@@ -5739,12 +5752,24 @@
       <c r="E4" s="63">
         <v>1</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
+      <c r="F4" s="63">
+        <v>1</v>
+      </c>
+      <c r="G4" s="63">
+        <v>0</v>
+      </c>
+      <c r="H4" s="63">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0</v>
+      </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
+        <v>0</v>
+      </c>
       <c r="L4" s="63" t="s">
         <v>40</v>
       </c>
@@ -5765,12 +5790,24 @@
       <c r="E5" s="61">
         <v>2</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="F5" s="61">
+        <v>0</v>
+      </c>
+      <c r="G5" s="63">
+        <v>0</v>
+      </c>
+      <c r="H5" s="63">
+        <v>0</v>
+      </c>
+      <c r="I5" s="63">
+        <v>0</v>
+      </c>
+      <c r="J5" s="63">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
+        <v>2</v>
+      </c>
       <c r="L5" s="63" t="s">
         <v>40</v>
       </c>
@@ -5791,12 +5828,24 @@
       <c r="E6" s="63">
         <v>1</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="F6" s="61">
+        <v>0</v>
+      </c>
+      <c r="G6" s="63">
+        <v>0</v>
+      </c>
+      <c r="H6" s="63">
+        <v>0</v>
+      </c>
+      <c r="I6" s="63">
+        <v>0</v>
+      </c>
+      <c r="J6" s="63">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63">
+        <v>1</v>
+      </c>
       <c r="L6" s="63" t="s">
         <v>40</v>
       </c>
@@ -5817,12 +5866,24 @@
       <c r="E7" s="61">
         <v>1</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="F7" s="61">
+        <v>1</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0</v>
+      </c>
+      <c r="J7" s="63">
+        <v>0</v>
+      </c>
+      <c r="K7" s="63">
+        <v>0</v>
+      </c>
       <c r="L7" s="63" t="s">
         <v>40</v>
       </c>
@@ -5843,12 +5904,24 @@
       <c r="E8" s="63">
         <v>2</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
+      <c r="F8" s="61">
+        <v>1</v>
+      </c>
+      <c r="G8" s="63">
+        <v>1</v>
+      </c>
+      <c r="H8" s="63">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63">
+        <v>0</v>
+      </c>
+      <c r="J8" s="63">
+        <v>0</v>
+      </c>
+      <c r="K8" s="63">
+        <v>0</v>
+      </c>
       <c r="L8" s="63" t="s">
         <v>40</v>
       </c>
@@ -5869,12 +5942,24 @@
       <c r="E9" s="63">
         <v>3</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
+      <c r="F9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63">
+        <v>1</v>
+      </c>
+      <c r="H9" s="63">
+        <v>1</v>
+      </c>
+      <c r="I9" s="63">
+        <v>0</v>
+      </c>
+      <c r="J9" s="63">
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <v>0</v>
+      </c>
       <c r="L9" s="63" t="s">
         <v>40</v>
       </c>
@@ -5895,12 +5980,24 @@
       <c r="E10" s="63">
         <v>2</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="F10" s="61">
+        <v>1</v>
+      </c>
+      <c r="G10" s="63">
+        <v>1</v>
+      </c>
+      <c r="H10" s="63">
+        <v>0</v>
+      </c>
+      <c r="I10" s="63">
+        <v>0</v>
+      </c>
+      <c r="J10" s="63">
+        <v>0</v>
+      </c>
+      <c r="K10" s="63">
+        <v>0</v>
+      </c>
       <c r="L10" s="63" t="s">
         <v>40</v>
       </c>
@@ -5921,12 +6018,24 @@
       <c r="E11" s="63">
         <v>2</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="F11" s="61">
+        <v>2</v>
+      </c>
+      <c r="G11" s="63">
+        <v>0</v>
+      </c>
+      <c r="H11" s="63">
+        <v>0</v>
+      </c>
+      <c r="I11" s="63">
+        <v>0</v>
+      </c>
+      <c r="J11" s="63">
+        <v>0</v>
+      </c>
+      <c r="K11" s="63">
+        <v>0</v>
+      </c>
       <c r="L11" s="63" t="s">
         <v>40</v>
       </c>
@@ -5947,12 +6056,24 @@
       <c r="E12" s="63">
         <v>2</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="F12" s="61">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63">
+        <v>1</v>
+      </c>
+      <c r="H12" s="63">
+        <v>1</v>
+      </c>
+      <c r="I12" s="63">
+        <v>0</v>
+      </c>
+      <c r="J12" s="63">
+        <v>0</v>
+      </c>
+      <c r="K12" s="63">
+        <v>0</v>
+      </c>
       <c r="L12" s="63" t="s">
         <v>40</v>
       </c>
@@ -5973,12 +6094,24 @@
       <c r="E13" s="63">
         <v>1</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="F13" s="61">
+        <v>0</v>
+      </c>
+      <c r="G13" s="63">
+        <v>1</v>
+      </c>
+      <c r="H13" s="63">
+        <v>0</v>
+      </c>
+      <c r="I13" s="63">
+        <v>0</v>
+      </c>
+      <c r="J13" s="63">
+        <v>0</v>
+      </c>
+      <c r="K13" s="63">
+        <v>0</v>
+      </c>
       <c r="L13" s="63" t="s">
         <v>40</v>
       </c>
@@ -5999,12 +6132,24 @@
       <c r="E14" s="63">
         <v>1</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="F14" s="61">
+        <v>0</v>
+      </c>
+      <c r="G14" s="63">
+        <v>0</v>
+      </c>
+      <c r="H14" s="63">
+        <v>1</v>
+      </c>
+      <c r="I14" s="63">
+        <v>0</v>
+      </c>
+      <c r="J14" s="63">
+        <v>0</v>
+      </c>
+      <c r="K14" s="63">
+        <v>0</v>
+      </c>
       <c r="L14" s="63" t="s">
         <v>40</v>
       </c>
@@ -6025,12 +6170,24 @@
       <c r="E15" s="63">
         <v>1</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="63">
+        <v>0</v>
+      </c>
+      <c r="H15" s="63">
+        <v>0</v>
+      </c>
+      <c r="I15" s="63">
+        <v>1</v>
+      </c>
+      <c r="J15" s="63">
+        <v>0</v>
+      </c>
+      <c r="K15" s="63">
+        <v>0</v>
+      </c>
       <c r="L15" s="63" t="s">
         <v>40</v>
       </c>
@@ -6051,12 +6208,24 @@
       <c r="E16" s="63">
         <v>1</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
+      <c r="F16" s="61">
+        <v>0</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1</v>
+      </c>
+      <c r="H16" s="63">
+        <v>0</v>
+      </c>
+      <c r="I16" s="63">
+        <v>0</v>
+      </c>
+      <c r="J16" s="63">
+        <v>0</v>
+      </c>
+      <c r="K16" s="63">
+        <v>0</v>
+      </c>
       <c r="L16" s="63" t="s">
         <v>40</v>
       </c>
@@ -6077,12 +6246,24 @@
       <c r="E17" s="63">
         <v>1</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
+      <c r="F17" s="61">
+        <v>0</v>
+      </c>
+      <c r="G17" s="63">
+        <v>0</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1</v>
+      </c>
+      <c r="I17" s="63">
+        <v>0</v>
+      </c>
+      <c r="J17" s="63">
+        <v>0</v>
+      </c>
+      <c r="K17" s="63">
+        <v>0</v>
+      </c>
       <c r="L17" s="63" t="s">
         <v>40</v>
       </c>
@@ -6103,12 +6284,24 @@
       <c r="E18" s="63">
         <v>2</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
+      <c r="F18" s="61">
+        <v>0</v>
+      </c>
+      <c r="G18" s="63">
+        <v>2</v>
+      </c>
+      <c r="H18" s="63">
+        <v>0</v>
+      </c>
+      <c r="I18" s="63">
+        <v>0</v>
+      </c>
+      <c r="J18" s="63">
+        <v>0</v>
+      </c>
+      <c r="K18" s="63">
+        <v>0</v>
+      </c>
       <c r="L18" s="63" t="s">
         <v>40</v>
       </c>
@@ -6129,12 +6322,24 @@
       <c r="E19" s="63">
         <v>2</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
+      <c r="F19" s="61">
+        <v>0</v>
+      </c>
+      <c r="G19" s="63">
+        <v>0</v>
+      </c>
+      <c r="H19" s="63">
+        <v>0</v>
+      </c>
+      <c r="I19" s="63">
+        <v>2</v>
+      </c>
+      <c r="J19" s="63">
+        <v>0</v>
+      </c>
+      <c r="K19" s="63">
+        <v>0</v>
+      </c>
       <c r="L19" s="63" t="s">
         <v>40</v>
       </c>
@@ -6155,12 +6360,24 @@
       <c r="E20" s="63">
         <v>1</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
+      <c r="F20" s="61">
+        <v>0</v>
+      </c>
+      <c r="G20" s="63">
+        <v>0</v>
+      </c>
+      <c r="H20" s="63">
+        <v>1</v>
+      </c>
+      <c r="I20" s="63">
+        <v>0</v>
+      </c>
+      <c r="J20" s="63">
+        <v>0</v>
+      </c>
+      <c r="K20" s="63">
+        <v>0</v>
+      </c>
       <c r="L20" s="63" t="s">
         <v>40</v>
       </c>
@@ -6181,12 +6398,24 @@
       <c r="E21" s="64">
         <v>1</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
+      <c r="F21" s="61">
+        <v>0</v>
+      </c>
+      <c r="G21" s="63">
+        <v>0</v>
+      </c>
+      <c r="H21" s="63">
+        <v>1</v>
+      </c>
+      <c r="I21" s="63">
+        <v>0</v>
+      </c>
+      <c r="J21" s="63">
+        <v>0</v>
+      </c>
+      <c r="K21" s="63">
+        <v>0</v>
+      </c>
       <c r="L21" s="64" t="s">
         <v>40</v>
       </c>
@@ -6207,12 +6436,24 @@
       <c r="E22" s="63">
         <v>1</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
+      <c r="F22" s="61">
+        <v>0</v>
+      </c>
+      <c r="G22" s="63">
+        <v>0</v>
+      </c>
+      <c r="H22" s="63">
+        <v>0</v>
+      </c>
+      <c r="I22" s="63">
+        <v>0</v>
+      </c>
+      <c r="J22" s="63">
+        <v>1</v>
+      </c>
+      <c r="K22" s="63">
+        <v>0</v>
+      </c>
       <c r="L22" s="63" t="s">
         <v>40</v>
       </c>
@@ -6233,12 +6474,24 @@
       <c r="E23" s="63">
         <v>1</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+      <c r="F23" s="61">
+        <v>0</v>
+      </c>
+      <c r="G23" s="63">
+        <v>0</v>
+      </c>
+      <c r="H23" s="63">
+        <v>0</v>
+      </c>
+      <c r="I23" s="63">
+        <v>0</v>
+      </c>
+      <c r="J23" s="63">
+        <v>1</v>
+      </c>
+      <c r="K23" s="63">
+        <v>0</v>
+      </c>
       <c r="L23" s="63" t="s">
         <v>40</v>
       </c>
@@ -6259,12 +6512,24 @@
       <c r="E24" s="63">
         <v>2</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
+      <c r="F24" s="61">
+        <v>0</v>
+      </c>
+      <c r="G24" s="63">
+        <v>0</v>
+      </c>
+      <c r="H24" s="63">
+        <v>2</v>
+      </c>
+      <c r="I24" s="63">
+        <v>0</v>
+      </c>
+      <c r="J24" s="63">
+        <v>0</v>
+      </c>
+      <c r="K24" s="63">
+        <v>0</v>
+      </c>
       <c r="L24" s="63" t="s">
         <v>40</v>
       </c>
@@ -6285,12 +6550,24 @@
       <c r="E25" s="63">
         <v>2</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
+      <c r="F25" s="61">
+        <v>0</v>
+      </c>
+      <c r="G25" s="63">
+        <v>0</v>
+      </c>
+      <c r="H25" s="63">
+        <v>0</v>
+      </c>
+      <c r="I25" s="63">
+        <v>1</v>
+      </c>
+      <c r="J25" s="63">
+        <v>1</v>
+      </c>
+      <c r="K25" s="63">
+        <v>0</v>
+      </c>
       <c r="L25" s="63" t="s">
         <v>40</v>
       </c>
@@ -6311,12 +6588,24 @@
       <c r="E26" s="63">
         <v>1</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
+      <c r="F26" s="61">
+        <v>0</v>
+      </c>
+      <c r="G26" s="63">
+        <v>0</v>
+      </c>
+      <c r="H26" s="63">
+        <v>0</v>
+      </c>
+      <c r="I26" s="63">
+        <v>1</v>
+      </c>
+      <c r="J26" s="63">
+        <v>0</v>
+      </c>
+      <c r="K26" s="63">
+        <v>0</v>
+      </c>
       <c r="L26" s="63" t="s">
         <v>40</v>
       </c>
@@ -6337,12 +6626,24 @@
       <c r="E27" s="63">
         <v>1</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
+      <c r="F27" s="61">
+        <v>0</v>
+      </c>
+      <c r="G27" s="63">
+        <v>0</v>
+      </c>
+      <c r="H27" s="63">
+        <v>0</v>
+      </c>
+      <c r="I27" s="63">
+        <v>1</v>
+      </c>
+      <c r="J27" s="63">
+        <v>0</v>
+      </c>
+      <c r="K27" s="63">
+        <v>0</v>
+      </c>
       <c r="L27" s="63" t="s">
         <v>40</v>
       </c>
@@ -6363,12 +6664,24 @@
       <c r="E28" s="63">
         <v>0.5</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
+      <c r="F28" s="61">
+        <v>0</v>
+      </c>
+      <c r="G28" s="63">
+        <v>0</v>
+      </c>
+      <c r="H28" s="63">
+        <v>0</v>
+      </c>
+      <c r="I28" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="63">
+        <v>0</v>
+      </c>
+      <c r="K28" s="63">
+        <v>0</v>
+      </c>
       <c r="L28" s="63" t="s">
         <v>40</v>
       </c>
@@ -6389,12 +6702,24 @@
       <c r="E29" s="63">
         <v>0.5</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
+      <c r="F29" s="61">
+        <v>0</v>
+      </c>
+      <c r="G29" s="63">
+        <v>0</v>
+      </c>
+      <c r="H29" s="63">
+        <v>0</v>
+      </c>
+      <c r="I29" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="63">
+        <v>0</v>
+      </c>
+      <c r="K29" s="63">
+        <v>0</v>
+      </c>
       <c r="L29" s="63" t="s">
         <v>40</v>
       </c>
@@ -6415,12 +6740,24 @@
       <c r="E30" s="63">
         <v>0.5</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
+      <c r="F30" s="61">
+        <v>0</v>
+      </c>
+      <c r="G30" s="63">
+        <v>0</v>
+      </c>
+      <c r="H30" s="63">
+        <v>0</v>
+      </c>
+      <c r="I30" s="63">
+        <v>0</v>
+      </c>
+      <c r="J30" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="63">
+        <v>0</v>
+      </c>
       <c r="L30" s="63" t="s">
         <v>40</v>
       </c>
@@ -6441,12 +6778,24 @@
       <c r="E31" s="63">
         <v>0.5</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
+      <c r="F31" s="61">
+        <v>0</v>
+      </c>
+      <c r="G31" s="63">
+        <v>0</v>
+      </c>
+      <c r="H31" s="63">
+        <v>0</v>
+      </c>
+      <c r="I31" s="63">
+        <v>0</v>
+      </c>
+      <c r="J31" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="63">
+        <v>0</v>
+      </c>
       <c r="L31" s="63" t="s">
         <v>40</v>
       </c>
@@ -6467,12 +6816,24 @@
       <c r="E32" s="63">
         <v>1</v>
       </c>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
+      <c r="F32" s="61">
+        <v>0</v>
+      </c>
+      <c r="G32" s="63">
+        <v>0</v>
+      </c>
+      <c r="H32" s="63">
+        <v>0</v>
+      </c>
+      <c r="I32" s="63">
+        <v>1</v>
+      </c>
+      <c r="J32" s="63">
+        <v>1</v>
+      </c>
+      <c r="K32" s="63">
+        <v>0</v>
+      </c>
       <c r="L32" s="63" t="s">
         <v>40</v>
       </c>
@@ -6493,12 +6854,24 @@
       <c r="E33" s="63">
         <v>0.5</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="F33" s="61">
+        <v>0</v>
+      </c>
+      <c r="G33" s="63">
+        <v>0</v>
+      </c>
+      <c r="H33" s="63">
+        <v>0</v>
+      </c>
+      <c r="I33" s="63">
+        <v>0</v>
+      </c>
+      <c r="J33" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="63">
+        <v>0.5</v>
+      </c>
       <c r="L33" s="63" t="s">
         <v>40</v>
       </c>
@@ -6519,12 +6892,24 @@
       <c r="E34" s="63">
         <v>0.5</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
+      <c r="F34" s="61">
+        <v>0</v>
+      </c>
+      <c r="G34" s="63">
+        <v>0</v>
+      </c>
+      <c r="H34" s="63">
+        <v>0</v>
+      </c>
+      <c r="I34" s="63">
+        <v>0</v>
+      </c>
+      <c r="J34" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="63">
+        <v>0</v>
+      </c>
       <c r="L34" s="63" t="s">
         <v>40</v>
       </c>
@@ -6545,12 +6930,24 @@
       <c r="E35" s="63">
         <v>1</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
+      <c r="F35" s="61">
+        <v>0</v>
+      </c>
+      <c r="G35" s="63">
+        <v>0</v>
+      </c>
+      <c r="H35" s="63">
+        <v>0</v>
+      </c>
+      <c r="I35" s="63">
+        <v>0</v>
+      </c>
+      <c r="J35" s="63">
+        <v>1</v>
+      </c>
+      <c r="K35" s="63">
+        <v>1</v>
+      </c>
       <c r="L35" s="63" t="s">
         <v>40</v>
       </c>
@@ -6571,12 +6968,24 @@
       <c r="E36" s="63">
         <v>1</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
+      <c r="F36" s="61">
+        <v>0</v>
+      </c>
+      <c r="G36" s="63">
+        <v>0</v>
+      </c>
+      <c r="H36" s="63">
+        <v>0</v>
+      </c>
+      <c r="I36" s="63">
+        <v>0</v>
+      </c>
+      <c r="J36" s="63">
+        <v>1</v>
+      </c>
+      <c r="K36" s="63">
+        <v>1</v>
+      </c>
       <c r="L36" s="63" t="s">
         <v>40</v>
       </c>
@@ -6634,27 +7043,27 @@
       </c>
       <c r="F40" s="18">
         <f t="shared" ref="F40:K40" si="0">SUM(F3:F38)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
@@ -6673,10 +7082,10 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:G1">
       <formula1>"Simple,Average,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
       <formula1>"Functional, External Interface, User Interface,System Interface, Non functional"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6686,7 +7095,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -6699,7 +7108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6730,15 +7139,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7546354fa6eadbdb121c3e0b1817e8b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69fdccfeacc47ed93e777095cd80702b" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -6935,6 +7335,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6942,14 +7351,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3FD810D-B2CF-41CE-A4AF-BFF65F1A4369}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6964,6 +7365,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
